--- a/3_model/model_stats.xlsx
+++ b/3_model/model_stats.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,29 +526,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>model_test_1</t>
+          <t>1_short_small_50</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="D2" t="n">
         <v>128</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
         <v>0.01</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
         <v>4</v>
@@ -559,16 +559,16 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>10.716</v>
+        <v>185.8307</v>
       </c>
       <c r="M2" t="n">
-        <v>0.18</v>
+        <v>3.1</v>
       </c>
       <c r="N2" t="n">
-        <v>2.545815944671631</v>
+        <v>1.162286281585693</v>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
@@ -580,20 +580,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>model_test_2</t>
+          <t>2_short_medium_50</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="D3" t="n">
         <v>256</v>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F3" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G3" t="n">
         <v>0.01</v>
@@ -602,10 +602,10 @@
         <v>0.001</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="J3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -613,20 +613,406 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>11.0534</v>
+        <v>304.2706</v>
       </c>
       <c r="M3" t="n">
-        <v>0.18</v>
+        <v>5.07</v>
       </c>
       <c r="N3" t="n">
-        <v>1.918940782546997</v>
+        <v>1.208277940750122</v>
       </c>
       <c r="O3" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3_short_large_50</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>256</v>
+      </c>
+      <c r="D4" t="n">
+        <v>512</v>
+      </c>
+      <c r="E4" t="n">
+        <v>8</v>
+      </c>
+      <c r="F4" t="n">
+        <v>12</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="I4" t="n">
+        <v>50</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>559.9953</v>
+      </c>
+      <c r="M4" t="n">
+        <v>9.33</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.841974496841431</v>
+      </c>
+      <c r="O4" t="n">
+        <v>48</v>
+      </c>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>4_middle_small_50</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1024</v>
+      </c>
+      <c r="D5" t="n">
+        <v>128</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="I5" t="n">
+        <v>50</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>241.443</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.09382963180542</v>
+      </c>
+      <c r="O5" t="n">
+        <v>50</v>
+      </c>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>5_middle_medium_50</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1024</v>
+      </c>
+      <c r="D6" t="n">
+        <v>256</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="n">
+        <v>6</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="I6" t="n">
+        <v>50</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>614.6323</v>
+      </c>
+      <c r="M6" t="n">
+        <v>10.24</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.120662093162537</v>
+      </c>
+      <c r="O6" t="n">
+        <v>37</v>
+      </c>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>6_middle_large_50</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1024</v>
+      </c>
+      <c r="D7" t="n">
+        <v>512</v>
+      </c>
+      <c r="E7" t="n">
+        <v>8</v>
+      </c>
+      <c r="F7" t="n">
+        <v>12</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="I7" t="n">
+        <v>50</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>2237.4356</v>
+      </c>
+      <c r="M7" t="n">
+        <v>37.29</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.88372278213501</v>
+      </c>
+      <c r="O7" t="n">
+        <v>49</v>
+      </c>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>7_long_small_50</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D8" t="n">
+        <v>128</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="I8" t="n">
+        <v>50</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>482.1712</v>
+      </c>
+      <c r="M8" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.12033748626709</v>
+      </c>
+      <c r="O8" t="n">
+        <v>49</v>
+      </c>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>8_long_medium_50</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D9" t="n">
+        <v>256</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" t="n">
+        <v>6</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="I9" t="n">
+        <v>50</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1494.6219</v>
+      </c>
+      <c r="M9" t="n">
+        <v>24.91</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.156428813934326</v>
+      </c>
+      <c r="O9" t="n">
+        <v>35</v>
+      </c>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>9_long_large_50</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D10" t="n">
+        <v>512</v>
+      </c>
+      <c r="E10" t="n">
+        <v>8</v>
+      </c>
+      <c r="F10" t="n">
+        <v>12</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="I10" t="n">
+        <v>50</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>too big - cuda error</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>too big - cuda error</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>too big - cuda error</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>too big - cuda error</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/3_model/model_stats.xlsx
+++ b/3_model/model_stats.xlsx
@@ -570,9 +570,15 @@
       <c r="O2" t="n">
         <v>46</v>
       </c>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
+      <c r="P2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -624,9 +630,15 @@
       <c r="O3" t="n">
         <v>30</v>
       </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -678,9 +690,15 @@
       <c r="O4" t="n">
         <v>48</v>
       </c>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>74.2</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -732,9 +750,15 @@
       <c r="O5" t="n">
         <v>50</v>
       </c>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
+      <c r="P5" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>278.2</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -786,9 +810,15 @@
       <c r="O6" t="n">
         <v>37</v>
       </c>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
+      <c r="P6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>253.8</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -840,9 +870,15 @@
       <c r="O7" t="n">
         <v>49</v>
       </c>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
+      <c r="P7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>287.8</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -894,9 +930,15 @@
       <c r="O8" t="n">
         <v>49</v>
       </c>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>538.2</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -948,9 +990,15 @@
       <c r="O9" t="n">
         <v>35</v>
       </c>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
+      <c r="P9" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>635</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
